--- a/Project Management/stakeholder_register.xlsx
+++ b/Project Management/stakeholder_register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Block_2\Project_Block_II\Documents\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225506\OneDrive - TU Eindhoven\Documents\asd-engd-project-2022-extrinsic-sensor-calibration\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C6F50-0205-4E29-9912-D537A104D41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECE8B9-D342-4F30-BF02-ECC1BCAA1C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9807EB41-5559-4428-9079-F24B3D76AB18}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{9807EB41-5559-4428-9079-F24B3D76AB18}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder Register" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,7 +182,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,11 +191,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -208,9 +216,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -226,9 +231,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E30C3946-272C-430B-92A0-FB14E5C6779E}" name="TBL_Stakeholders3" displayName="TBL_Stakeholders3" ref="A1:E9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E30C3946-272C-430B-92A0-FB14E5C6779E}" name="TBL_Stakeholders3" displayName="TBL_Stakeholders3" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9F64E474-2F8C-4F36-B81A-4605020938FC}" name="Sr. No." dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9F64E474-2F8C-4F36-B81A-4605020938FC}" name="Sr. No." dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{0D17F247-20C5-4705-A975-DC23E1BADA0D}" name="Name"/>
     <tableColumn id="23" xr3:uid="{59A51104-4EE8-4ACF-B02D-38BA89348F9E}" name="E-mail"/>
     <tableColumn id="20" xr3:uid="{D89AEE97-F2C4-4648-A20C-30EC38774AEE}" name="Organization"/>
@@ -538,7 +543,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,20 +555,20 @@
     <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -574,13 +579,13 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -591,13 +596,13 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -608,13 +613,13 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -625,13 +630,13 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -642,13 +647,13 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>1</v>
       </c>
     </row>
